--- a/dataset/allMatchVideoDetail/2013/2013_606_season_highlights.xlsx
+++ b/dataset/allMatchVideoDetail/2013/2013_606_season_highlights.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +437,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>match_number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>toss</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>match_link</t>
         </is>
@@ -457,15 +462,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Match 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Kolkata Knight Riders won by 6 wickets</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Kolkata Knight Riders, who chose to field</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/3aa2ba01b7b8464691eb51ccda207137/m1-kkr-vs-dd-match-highlights</t>
         </is>
